--- a/Image.xlsx
+++ b/Image.xlsx
@@ -8,14 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="UART_driver" sheetId="1" r:id="rId1"/>
-    <sheet name="UART_task" sheetId="2" r:id="rId2"/>
+    <sheet name="Font" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" calcMode="manual"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
   <si>
     <t>送信データWrite</t>
     <rPh sb="0" eb="2">
@@ -80,12 +80,28 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>ＭＳ Ｐゴシック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Courier New</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Courier</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Consolas</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,6 +126,23 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Courier"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -119,12 +152,76 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -133,7 +230,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -141,6 +238,30 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2339,2221 +2460,6 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2571750" y="2228850"/>
-          <a:ext cx="1285875" cy="171449"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:prstDash val="dash"/>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="857250" y="514350"/>
-          <a:ext cx="857250" cy="342900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>tx_driver</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="直線コネクタ 2"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="2" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1285875" y="857250"/>
-          <a:ext cx="0" cy="4457700"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="正方形/長方形 3"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2143125" y="514350"/>
-          <a:ext cx="857250" cy="342900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>tx</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="正方形/長方形 4"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3429000" y="514350"/>
-          <a:ext cx="857250" cy="342900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>rx</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="正方形/長方形 5"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4714875" y="533400"/>
-          <a:ext cx="857250" cy="342900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>rx_driver</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="直線コネクタ 6"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="4" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2571750" y="857250"/>
-          <a:ext cx="0" cy="4457700"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="直線コネクタ 7"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="5" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3857625" y="857250"/>
-          <a:ext cx="0" cy="4457700"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="直線コネクタ 8"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="6" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5143500" y="876300"/>
-          <a:ext cx="0" cy="4438650"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="10" name="直線矢印コネクタ 9"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1285875" y="1371600"/>
-          <a:ext cx="1285875" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="11" name="直線矢印コネクタ 10"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1285875" y="1543050"/>
-          <a:ext cx="1285875" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="12" name="直線矢印コネクタ 11"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2571750" y="1885951"/>
-          <a:ext cx="1285875" cy="171449"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="13" name="直線矢印コネクタ 12"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2571750" y="2057400"/>
-          <a:ext cx="1285875" cy="171449"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="14" name="直線矢印コネクタ 13"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2571750" y="2743201"/>
-          <a:ext cx="1285875" cy="171449"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="15" name="直線矢印コネクタ 14"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2571750" y="2571750"/>
-          <a:ext cx="1285875" cy="171449"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="16" name="直線矢印コネクタ 15"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2571750" y="2400300"/>
-          <a:ext cx="1285875" cy="171449"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:prstDash val="dash"/>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="17" name="直線矢印コネクタ 16"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2571750" y="2228850"/>
-          <a:ext cx="1285875" cy="171449"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:prstDash val="dash"/>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="18" name="直線矢印コネクタ 17"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="1285875" y="2914650"/>
-          <a:ext cx="1285875" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="19" name="直線矢印コネクタ 18"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3857626" y="3086100"/>
-          <a:ext cx="1285874" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="20" name="直線矢印コネクタ 19"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1285875" y="3086100"/>
-          <a:ext cx="1285875" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="21" name="直線矢印コネクタ 20"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1285875" y="3257550"/>
-          <a:ext cx="1285875" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="22" name="直線矢印コネクタ 21"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1285875" y="3086100"/>
-          <a:ext cx="1285875" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="23" name="直線矢印コネクタ 22"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2571750" y="3429001"/>
-          <a:ext cx="1285875" cy="171449"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="24" name="直線矢印コネクタ 23"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2571750" y="3600450"/>
-          <a:ext cx="1285875" cy="171449"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="25" name="直線矢印コネクタ 24"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2571750" y="4286251"/>
-          <a:ext cx="1285875" cy="171449"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="26" name="直線矢印コネクタ 25"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2571750" y="4114800"/>
-          <a:ext cx="1285875" cy="171449"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="27" name="直線矢印コネクタ 26"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2571750" y="3943350"/>
-          <a:ext cx="1285875" cy="171449"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:prstDash val="dash"/>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="28" name="直線矢印コネクタ 27"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2571750" y="3771900"/>
-          <a:ext cx="1285875" cy="171449"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:prstDash val="dash"/>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="29" name="直線矢印コネクタ 28"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="3857625" y="3257550"/>
-          <a:ext cx="1285876" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="30" name="直線矢印コネクタ 29"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="1285875" y="4457700"/>
-          <a:ext cx="1285875" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="31" name="直線矢印コネクタ 30"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1285875" y="4800600"/>
-          <a:ext cx="1285875" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="32" name="直線矢印コネクタ 31"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1285875" y="4629150"/>
-          <a:ext cx="1285875" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="33" name="直線矢印コネクタ 32"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="1285875" y="4457700"/>
-          <a:ext cx="1285875" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="34" name="直線矢印コネクタ 33"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1285875" y="4629150"/>
-          <a:ext cx="1285875" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="35" name="直線矢印コネクタ 34"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1285875" y="4629150"/>
-          <a:ext cx="1285875" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="36" name="直線矢印コネクタ 35"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3857626" y="4629150"/>
-          <a:ext cx="1285874" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="37" name="直線矢印コネクタ 36"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="3857625" y="4800600"/>
-          <a:ext cx="1285876" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="38" name="直線矢印コネクタ 37"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3857626" y="4629150"/>
-          <a:ext cx="1285874" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>428624</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="39" name="四角形吹き出し 38"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4286249" y="3429000"/>
-          <a:ext cx="2143126" cy="857250"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -39944"/>
-            <a:gd name="adj2" fmla="val -64167"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>この</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>Read</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>を次の受信完了割り込みが来る前に行うこと！</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>でないと新しいデータで上書きされデータをロストしてしまう。</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="40" name="直線矢印コネクタ 39"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2571750" y="3429001"/>
-          <a:ext cx="1285875" cy="171449"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="41" name="直線矢印コネクタ 40"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2571750" y="3600450"/>
-          <a:ext cx="1285875" cy="171449"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="42" name="直線矢印コネクタ 41"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2571750" y="4114800"/>
-          <a:ext cx="1285875" cy="171449"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="43" name="直線矢印コネクタ 42"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2571750" y="3943350"/>
-          <a:ext cx="1285875" cy="171449"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:prstDash val="dash"/>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="44" name="直線矢印コネクタ 43"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2571750" y="3771900"/>
           <a:ext cx="1285875" cy="171449"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -4993,93 +2899,330 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E8:K28"/>
+  <dimension ref="C4:H25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="5.625" style="1"/>
+    <col min="1" max="2" width="5.625" style="1"/>
+    <col min="3" max="6" width="13.625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="5.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="8" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E8" s="1" t="s">
-        <v>0</v>
+    <row r="4" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="9" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E9" s="1" t="s">
-        <v>1</v>
+    <row r="5" spans="3:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="C5" s="3" t="str">
+        <f ca="1" xml:space="preserve"> DEC2HEX( INT(RAND()*65536), 4) &amp; DEC2HEX( INT(RAND()*65536), 4)</f>
+        <v>B0E470F4</v>
+      </c>
+      <c r="D5" s="4" t="str">
+        <f ca="1">C5</f>
+        <v>B0E470F4</v>
+      </c>
+      <c r="E5" s="5" t="str">
+        <f ca="1">D5</f>
+        <v>B0E470F4</v>
+      </c>
+      <c r="F5" s="6" t="str">
+        <f ca="1">E5</f>
+        <v>B0E470F4</v>
       </c>
     </row>
-    <row r="11" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="H11" s="2" t="s">
-        <v>2</v>
+    <row r="6" spans="3:8" ht="15" x14ac:dyDescent="0.15">
+      <c r="C6" s="3" t="str">
+        <f t="shared" ref="C6:C20" ca="1" si="0" xml:space="preserve"> DEC2HEX( INT(RAND()*65536), 4) &amp; DEC2HEX( INT(RAND()*65536), 4)</f>
+        <v>A169FDC5</v>
+      </c>
+      <c r="D6" s="4" t="str">
+        <f t="shared" ref="D6:F20" ca="1" si="1">C6</f>
+        <v>A169FDC5</v>
+      </c>
+      <c r="E6" s="5" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>A169FDC5</v>
+      </c>
+      <c r="F6" s="6" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>A169FDC5</v>
       </c>
     </row>
-    <row r="16" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="H16" s="2" t="s">
-        <v>3</v>
+    <row r="7" spans="3:8" ht="15" x14ac:dyDescent="0.15">
+      <c r="C7" s="3" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>F261C11C</v>
+      </c>
+      <c r="D7" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>F261C11C</v>
+      </c>
+      <c r="E7" s="5" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>F261C11C</v>
+      </c>
+      <c r="F7" s="6" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>F261C11C</v>
       </c>
     </row>
-    <row r="17" spans="5:11" x14ac:dyDescent="0.15">
-      <c r="E17" s="1" t="s">
-        <v>4</v>
+    <row r="8" spans="3:8" ht="15" x14ac:dyDescent="0.15">
+      <c r="C8" s="3" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>22D51144</v>
+      </c>
+      <c r="D8" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>22D51144</v>
+      </c>
+      <c r="E8" s="5" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>22D51144</v>
+      </c>
+      <c r="F8" s="6" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>22D51144</v>
       </c>
     </row>
-    <row r="18" spans="5:11" x14ac:dyDescent="0.15">
-      <c r="E18" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>5</v>
+    <row r="9" spans="3:8" ht="15" x14ac:dyDescent="0.15">
+      <c r="C9" s="3" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>5DA601B8</v>
+      </c>
+      <c r="D9" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>5DA601B8</v>
+      </c>
+      <c r="E9" s="5" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>5DA601B8</v>
+      </c>
+      <c r="F9" s="6" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>5DA601B8</v>
       </c>
     </row>
-    <row r="19" spans="5:11" x14ac:dyDescent="0.15">
-      <c r="E19" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>6</v>
+    <row r="10" spans="3:8" ht="15" x14ac:dyDescent="0.15">
+      <c r="C10" s="3" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>857E090F</v>
+      </c>
+      <c r="D10" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>857E090F</v>
+      </c>
+      <c r="E10" s="5" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>857E090F</v>
+      </c>
+      <c r="F10" s="6" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>857E090F</v>
       </c>
     </row>
-    <row r="20" spans="5:11" x14ac:dyDescent="0.15">
-      <c r="H20" s="2" t="s">
-        <v>2</v>
-      </c>
+    <row r="11" spans="3:8" ht="15" x14ac:dyDescent="0.15">
+      <c r="C11" s="3" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>72EF7F32</v>
+      </c>
+      <c r="D11" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>72EF7F32</v>
+      </c>
+      <c r="E11" s="5" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>72EF7F32</v>
+      </c>
+      <c r="F11" s="6" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>72EF7F32</v>
+      </c>
+      <c r="H11" s="2"/>
     </row>
-    <row r="25" spans="5:11" x14ac:dyDescent="0.15">
-      <c r="H25" s="2" t="s">
-        <v>3</v>
+    <row r="12" spans="3:8" ht="15" x14ac:dyDescent="0.15">
+      <c r="C12" s="3" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>DB424768</v>
+      </c>
+      <c r="D12" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>DB424768</v>
+      </c>
+      <c r="E12" s="5" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>DB424768</v>
+      </c>
+      <c r="F12" s="6" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>DB424768</v>
       </c>
     </row>
-    <row r="26" spans="5:11" x14ac:dyDescent="0.15">
-      <c r="E26" s="1" t="s">
-        <v>4</v>
+    <row r="13" spans="3:8" ht="15" x14ac:dyDescent="0.15">
+      <c r="C13" s="3" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>76561F7D</v>
+      </c>
+      <c r="D13" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>76561F7D</v>
+      </c>
+      <c r="E13" s="5" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>76561F7D</v>
+      </c>
+      <c r="F13" s="6" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>76561F7D</v>
       </c>
     </row>
-    <row r="27" spans="5:11" x14ac:dyDescent="0.15">
-      <c r="E27" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>5</v>
+    <row r="14" spans="3:8" ht="15" x14ac:dyDescent="0.15">
+      <c r="C14" s="3" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>BBF65238</v>
+      </c>
+      <c r="D14" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>BBF65238</v>
+      </c>
+      <c r="E14" s="5" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>BBF65238</v>
+      </c>
+      <c r="F14" s="6" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>BBF65238</v>
       </c>
     </row>
-    <row r="28" spans="5:11" x14ac:dyDescent="0.15">
-      <c r="E28" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>6</v>
-      </c>
+    <row r="15" spans="3:8" ht="15" x14ac:dyDescent="0.15">
+      <c r="C15" s="3" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>FEB3C61F</v>
+      </c>
+      <c r="D15" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>FEB3C61F</v>
+      </c>
+      <c r="E15" s="5" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>FEB3C61F</v>
+      </c>
+      <c r="F15" s="6" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>FEB3C61F</v>
+      </c>
+    </row>
+    <row r="16" spans="3:8" ht="15" x14ac:dyDescent="0.15">
+      <c r="C16" s="3" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>BA12EEB2</v>
+      </c>
+      <c r="D16" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>BA12EEB2</v>
+      </c>
+      <c r="E16" s="5" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>BA12EEB2</v>
+      </c>
+      <c r="F16" s="6" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>BA12EEB2</v>
+      </c>
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="3:8" ht="15" x14ac:dyDescent="0.15">
+      <c r="C17" s="3" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>09B18F3B</v>
+      </c>
+      <c r="D17" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>09B18F3B</v>
+      </c>
+      <c r="E17" s="5" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>09B18F3B</v>
+      </c>
+      <c r="F17" s="6" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>09B18F3B</v>
+      </c>
+    </row>
+    <row r="18" spans="3:8" ht="15" x14ac:dyDescent="0.15">
+      <c r="C18" s="3" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>E44F257F</v>
+      </c>
+      <c r="D18" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>E44F257F</v>
+      </c>
+      <c r="E18" s="5" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>E44F257F</v>
+      </c>
+      <c r="F18" s="6" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>E44F257F</v>
+      </c>
+    </row>
+    <row r="19" spans="3:8" ht="15" x14ac:dyDescent="0.15">
+      <c r="C19" s="3" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>108CCCFD</v>
+      </c>
+      <c r="D19" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>108CCCFD</v>
+      </c>
+      <c r="E19" s="5" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>108CCCFD</v>
+      </c>
+      <c r="F19" s="6" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>108CCCFD</v>
+      </c>
+    </row>
+    <row r="20" spans="3:8" ht="15" x14ac:dyDescent="0.15">
+      <c r="C20" s="3" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>25F147E9</v>
+      </c>
+      <c r="D20" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>25F147E9</v>
+      </c>
+      <c r="E20" s="5" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>25F147E9</v>
+      </c>
+      <c r="F20" s="6" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>25F147E9</v>
+      </c>
+      <c r="H20" s="2"/>
+    </row>
+    <row r="25" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="H25" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>